--- a/psi_specifications_two_sides.xlsx
+++ b/psi_specifications_two_sides.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>blocks</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>blocks with PSI scanned</t>
-  </si>
-  <si>
-    <t>blocks with PSI after cutting scanned</t>
   </si>
   <si>
     <t>blocks after cutting scanned</t>
@@ -416,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,7 +432,7 @@
     <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +446,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>9</v>
@@ -460,11 +457,8 @@
       <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -483,9 +477,8 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -499,12 +492,12 @@
         <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -523,9 +516,8 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -543,8 +535,9 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -558,12 +551,12 @@
         <v>-13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -577,11 +570,11 @@
         <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -597,7 +590,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -613,7 +606,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -631,8 +624,9 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -648,7 +642,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -664,7 +658,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -680,7 +674,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -698,8 +692,9 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -717,8 +712,9 @@
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -736,8 +732,9 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -755,8 +752,9 @@
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -774,8 +772,9 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -793,8 +792,9 @@
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -812,8 +812,9 @@
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -831,8 +832,9 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -847,7 +849,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -862,7 +864,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -877,7 +879,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -892,7 +894,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -907,7 +909,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -922,7 +924,7 @@
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -937,7 +939,7 @@
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -952,7 +954,7 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -967,7 +969,7 @@
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -982,7 +984,7 @@
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
